--- a/maps.xlsx
+++ b/maps.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q\git\k4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C3CE3-6092-4091-89C9-79A059716F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,509 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+  <si>
+    <t>ợ</t>
+  </si>
+  <si>
+    <t>ợu</t>
+  </si>
+  <si>
+    <t>ợi</t>
+  </si>
+  <si>
+    <t>ợc</t>
+  </si>
+  <si>
+    <t>ợng</t>
+  </si>
+  <si>
+    <t>uợ</t>
+  </si>
+  <si>
+    <t>uợu</t>
+  </si>
+  <si>
+    <t>uợi</t>
+  </si>
+  <si>
+    <t>uợc</t>
+  </si>
+  <si>
+    <t>uợng</t>
+  </si>
+  <si>
+    <t>ọ</t>
+  </si>
+  <si>
+    <t>ọu</t>
+  </si>
+  <si>
+    <t>ọi</t>
+  </si>
+  <si>
+    <t>ọc</t>
+  </si>
+  <si>
+    <t>ọng</t>
+  </si>
+  <si>
+    <t>oọ</t>
+  </si>
+  <si>
+    <t>oọu</t>
+  </si>
+  <si>
+    <t>oọi</t>
+  </si>
+  <si>
+    <t>oọc</t>
+  </si>
+  <si>
+    <t>oọng</t>
+  </si>
+  <si>
+    <t>ạ</t>
+  </si>
+  <si>
+    <t>ạo</t>
+  </si>
+  <si>
+    <t>ại</t>
+  </si>
+  <si>
+    <t>ạc</t>
+  </si>
+  <si>
+    <t>ạng</t>
+  </si>
+  <si>
+    <t>oạ</t>
+  </si>
+  <si>
+    <t>oạo</t>
+  </si>
+  <si>
+    <t>oại</t>
+  </si>
+  <si>
+    <t>oạc</t>
+  </si>
+  <si>
+    <t>oạng</t>
+  </si>
+  <si>
+    <t>ẹ</t>
+  </si>
+  <si>
+    <t>ẹo</t>
+  </si>
+  <si>
+    <t>ẹi</t>
+  </si>
+  <si>
+    <t>ẹc</t>
+  </si>
+  <si>
+    <t>ẹng</t>
+  </si>
+  <si>
+    <t>oẹ</t>
+  </si>
+  <si>
+    <t>oẹo</t>
+  </si>
+  <si>
+    <t>oẹi</t>
+  </si>
+  <si>
+    <t>oẹc</t>
+  </si>
+  <si>
+    <t>oẹng</t>
+  </si>
+  <si>
+    <t>gẹ</t>
+  </si>
+  <si>
+    <t>gẹo</t>
+  </si>
+  <si>
+    <t>gẹi</t>
+  </si>
+  <si>
+    <t>gẹc</t>
+  </si>
+  <si>
+    <t>gẹng</t>
+  </si>
+  <si>
+    <t>gioẹ</t>
+  </si>
+  <si>
+    <t>gioẹo</t>
+  </si>
+  <si>
+    <t>gioẹi</t>
+  </si>
+  <si>
+    <t>gioẹc</t>
+  </si>
+  <si>
+    <t>gioẹng</t>
+  </si>
+  <si>
+    <t>ệ</t>
+  </si>
+  <si>
+    <t>ệu</t>
+  </si>
+  <si>
+    <t>ệy</t>
+  </si>
+  <si>
+    <t>ệch</t>
+  </si>
+  <si>
+    <t>ệnh</t>
+  </si>
+  <si>
+    <t>uệ</t>
+  </si>
+  <si>
+    <t>uệu</t>
+  </si>
+  <si>
+    <t>uệy</t>
+  </si>
+  <si>
+    <t>uệch</t>
+  </si>
+  <si>
+    <t>uệnh</t>
+  </si>
+  <si>
+    <t>gệ</t>
+  </si>
+  <si>
+    <t>gệu</t>
+  </si>
+  <si>
+    <t>gệy</t>
+  </si>
+  <si>
+    <t>gệch</t>
+  </si>
+  <si>
+    <t>gệnh</t>
+  </si>
+  <si>
+    <t>giuệ</t>
+  </si>
+  <si>
+    <t>giuệu</t>
+  </si>
+  <si>
+    <t>giuệy</t>
+  </si>
+  <si>
+    <t>giuệch</t>
+  </si>
+  <si>
+    <t>giuệnh</t>
+  </si>
+  <si>
+    <t>ị</t>
+  </si>
+  <si>
+    <t>ịu</t>
+  </si>
+  <si>
+    <t>ỵ</t>
+  </si>
+  <si>
+    <t>ịch</t>
+  </si>
+  <si>
+    <t>ịnh</t>
+  </si>
+  <si>
+    <t>uị</t>
+  </si>
+  <si>
+    <t>uỵu</t>
+  </si>
+  <si>
+    <t>uỵ</t>
+  </si>
+  <si>
+    <t>uỵch</t>
+  </si>
+  <si>
+    <t>uỵnh</t>
+  </si>
+  <si>
+    <t>gị</t>
+  </si>
+  <si>
+    <t>gịu</t>
+  </si>
+  <si>
+    <t>gỵ</t>
+  </si>
+  <si>
+    <t>gịch</t>
+  </si>
+  <si>
+    <t>gịnh</t>
+  </si>
+  <si>
+    <t>giuị</t>
+  </si>
+  <si>
+    <t>giuỵu</t>
+  </si>
+  <si>
+    <t>giuỵ</t>
+  </si>
+  <si>
+    <t>giuỵch</t>
+  </si>
+  <si>
+    <t>giuỵnh</t>
+  </si>
+  <si>
+    <t>quị</t>
+  </si>
+  <si>
+    <t>quỵu</t>
+  </si>
+  <si>
+    <t>quỵ</t>
+  </si>
+  <si>
+    <t>quỵch</t>
+  </si>
+  <si>
+    <t>quỵnh</t>
+  </si>
+  <si>
+    <t>ịa</t>
+  </si>
+  <si>
+    <t>yệu</t>
+  </si>
+  <si>
+    <t>yệy</t>
+  </si>
+  <si>
+    <t>yệc</t>
+  </si>
+  <si>
+    <t>yệng</t>
+  </si>
+  <si>
+    <t>uỵa</t>
+  </si>
+  <si>
+    <t>uyệu</t>
+  </si>
+  <si>
+    <t>uyệy</t>
+  </si>
+  <si>
+    <t>uyệc</t>
+  </si>
+  <si>
+    <t>uyệng</t>
+  </si>
+  <si>
+    <t>gỵa</t>
+  </si>
+  <si>
+    <t>giệu</t>
+  </si>
+  <si>
+    <t>giệy</t>
+  </si>
+  <si>
+    <t>giệc</t>
+  </si>
+  <si>
+    <t>giệng</t>
+  </si>
+  <si>
+    <t>giuỵa</t>
+  </si>
+  <si>
+    <t>giuyệu</t>
+  </si>
+  <si>
+    <t>giuyệy</t>
+  </si>
+  <si>
+    <t>giuyệc</t>
+  </si>
+  <si>
+    <t>giuyệng</t>
+  </si>
+  <si>
+    <t>ộ</t>
+  </si>
+  <si>
+    <t>ộu</t>
+  </si>
+  <si>
+    <t>ội</t>
+  </si>
+  <si>
+    <t>ộc</t>
+  </si>
+  <si>
+    <t>ộng</t>
+  </si>
+  <si>
+    <t>oộ</t>
+  </si>
+  <si>
+    <t>oộu</t>
+  </si>
+  <si>
+    <t>oội</t>
+  </si>
+  <si>
+    <t>oộc</t>
+  </si>
+  <si>
+    <t>oộng</t>
+  </si>
+  <si>
+    <t>oạnh</t>
+  </si>
+  <si>
+    <t>uậu</t>
+  </si>
+  <si>
+    <t>uậy</t>
+  </si>
+  <si>
+    <t>uậc</t>
+  </si>
+  <si>
+    <t>uậng</t>
+  </si>
+  <si>
+    <t>ạch</t>
+  </si>
+  <si>
+    <t>ạu</t>
+  </si>
+  <si>
+    <t>ạy</t>
+  </si>
+  <si>
+    <t>ặc</t>
+  </si>
+  <si>
+    <t>ặng</t>
+  </si>
+  <si>
+    <t>ạnh</t>
+  </si>
+  <si>
+    <t>ậu</t>
+  </si>
+  <si>
+    <t>ậy</t>
+  </si>
+  <si>
+    <t>ậc</t>
+  </si>
+  <si>
+    <t>ậng</t>
+  </si>
+  <si>
+    <t>oạch</t>
+  </si>
+  <si>
+    <t>oạu</t>
+  </si>
+  <si>
+    <t>oạy</t>
+  </si>
+  <si>
+    <t>oặc</t>
+  </si>
+  <si>
+    <t>oặng</t>
+  </si>
+  <si>
+    <t>ự</t>
+  </si>
+  <si>
+    <t>ựu</t>
+  </si>
+  <si>
+    <t>ựi</t>
+  </si>
+  <si>
+    <t>ực</t>
+  </si>
+  <si>
+    <t>ựng</t>
+  </si>
+  <si>
+    <t>ựa</t>
+  </si>
+  <si>
+    <t>ượu</t>
+  </si>
+  <si>
+    <t>ượi</t>
+  </si>
+  <si>
+    <t>ược</t>
+  </si>
+  <si>
+    <t>ượng</t>
+  </si>
+  <si>
+    <t>ụ</t>
+  </si>
+  <si>
+    <t>ụu</t>
+  </si>
+  <si>
+    <t>ụi</t>
+  </si>
+  <si>
+    <t>ục</t>
+  </si>
+  <si>
+    <t>ụng</t>
+  </si>
+  <si>
+    <t>ụa</t>
+  </si>
+  <si>
+    <t>uộu</t>
+  </si>
+  <si>
+    <t>uội</t>
+  </si>
+  <si>
+    <t>uộc</t>
+  </si>
+  <si>
+    <t>uộng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +534,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF92D050"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B0F0"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -45,12 +606,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1190,574 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="13.53125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13.53125" style="10"/>
+    <col min="2" max="3" width="13.53125" style="9"/>
+    <col min="4" max="4" width="13.53125" style="1"/>
+    <col min="5" max="5" width="13.53125" style="2"/>
+    <col min="6" max="6" width="13.53125" style="4"/>
+    <col min="7" max="7" width="13.53125" style="6"/>
+    <col min="8" max="8" width="13.53125" style="4"/>
+    <col min="9" max="10" width="13.53125" style="9"/>
+    <col min="11" max="12" width="13.53125" style="5"/>
+    <col min="15" max="16384" width="13.53125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="E17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="E18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="E19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="G21" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="G22" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="G23" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.5">
+      <c r="G24" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/maps.xlsx
+++ b/maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q\git\k4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C3CE3-6092-4091-89C9-79A059716F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C939D72-7660-439F-A6C4-B6D04FDFE123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,11 +863,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -885,7 +884,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -894,7 +892,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1191,568 +1188,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.53125" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.53125" style="10"/>
-    <col min="2" max="3" width="13.53125" style="9"/>
+    <col min="1" max="1" width="13.53125" style="9"/>
+    <col min="2" max="3" width="13.53125" style="8"/>
     <col min="4" max="4" width="13.53125" style="1"/>
     <col min="5" max="5" width="13.53125" style="2"/>
-    <col min="6" max="6" width="13.53125" style="4"/>
-    <col min="7" max="7" width="13.53125" style="6"/>
-    <col min="8" max="8" width="13.53125" style="4"/>
-    <col min="9" max="10" width="13.53125" style="9"/>
-    <col min="11" max="12" width="13.53125" style="5"/>
-    <col min="15" max="16384" width="13.53125" style="1"/>
+    <col min="6" max="6" width="13.53125" style="3"/>
+    <col min="7" max="7" width="13.53125" style="5"/>
+    <col min="8" max="8" width="13.53125" style="3"/>
+    <col min="9" max="10" width="13.53125" style="8"/>
+    <col min="11" max="12" width="13.53125" style="4"/>
+    <col min="16" max="16384" width="13.53125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="41" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="39" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="41" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="41" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="43" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="32" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="33" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="33" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="33" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="5:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.5">
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="5:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="31" t="s">
         <v>94</v>
       </c>
     </row>
